--- a/digital_mkt_250715/kurly_reviews.xlsx
+++ b/digital_mkt_250715/kurly_reviews.xlsx
@@ -1,120 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/admin/pythonBasic_v1/digital_mkt_250715/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0DE24-9EE9-0D47-A7FD-BCC980BA1F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="48820" yWindow="2020" windowWidth="22140" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kurly Reviews" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Kurly Reviews" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Keyword Frequency" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>리뷰 내용</t>
-  </si>
-  <si>
-    <t>헤어 오일하면 역시 모로칸오일!
-예전엔 늘 백화점에서 구매했는데, 인기 있는 제품이다 보니 재입고 일정 맞추기도 어렵고 기다림이 꽤 있었어요. 그런데 이번엔 컬리에서 샛별배송으로 바로 받아볼 수 있어서 정말 편하더라고요. 퇴근하고 주문했는데 다음 날 아침, 바로 현관 앞에 도착! 이래서 컬리를 못 끊는 이유죠.
-모로칸오일은 워낙 유명해서 설명이 필요 없을 정도예요. 향이 고급스럽고 머릿결을 찰랑거리게 해주는 오일로, 손상모나 건조모에는 특히 더 효과가 확실해요. 저처럼 자주 염색·드라이 하는 모발에 발라주면, 푸석함 없이 차분하게 정돈되면서 윤기가 살아나요.
-끈적임 없이 흡수도 빨라서 사계절 내내 부담 없이 사용 가능하고, 소량으로도 충분해서 오래 쓰게 돼요. 드라이 전/후로 나눠 바르면 더 효과적이에요. 백화점 정품 그대로, 빠르게 받을 수 있다는 점에서 컬리에서 재구매할 이유가 확실해졌어요. 앞으로도 쭉 컬리에서 구매할 예정입니다!</t>
-  </si>
-  <si>
-    <t>모로칸 오일은 너무나도 유명하죠?
-전 면세점 갈 일 있음 꼭 쟁이곤 하는데요
-면세점보다 혜택이 좋은 곳은?
-바로 컬리에요 🤗
-멤버스 혜택 또는 뷰티컬리데이에는 면세점보다 
-더 좋은 혜택으로 살 수 있어요 
-전 컬리에서 벌써 3번 이상 구매했는 걸요?
-똑 떨어지면 몇날 몇일 기다리지 않고 
-담날 새벽이면 오니까 
-내 머리결까지 컬리가 지켜줍니다
-✅ 제형
-노란빛 도는 점성있는 오일 제형
-✅ 향
-무난하니 호불호 없는 향
-(헤어제품으로 아르간 오일이 좋다고 해서 
-사서 써본 적이 있는데 저에겐 불호 였네요)
-✅  효과
-이게 제일 중요한데 젖은 머리에 발라두면
-마르고 나서도 머리가 엉킴없이 부드러워요
-머리에서 윤기도 나고요 ✨✨
-헤어오일 잘 못 쓰면 기름져서 떡지기도 하자나요😭
-모로칸 오일은 그런 것 없이 머리카락에 싹 스며들면서
-찰랑이는 머리결을 유지한다는 게 신통방통!!
-역시는 역시, 유명한 데는 다 이유가 있다!
-모로칸 오일이 다시 한번 증명하네요 🤗
-앞으론 쭉 모로칸 오일은 컬리에서만 
-사게될 것 같아요 🫶🏻</t>
-  </si>
-  <si>
-    <t>머리감고 물기만 수건으로 톡톡하고
-모로칸오일 젖은 머리카락에 발라주고
-드라이하고 또 모로칸오일 발라줬는데
-머리카락이 부들부들
-오늘 처음 썼는데 너무 좋아요~^^
-잦은 염색으로 머리카락이 푸석푸석하고 머리결도 안좋고, 머리가 끊어지고 그래서
-스트레스였는데 컬리에서 저렴하게 살 수 있어서 넘 좋아요
-꾸준하게 쓰면 머리결 좋아질 거 같아요~</t>
-  </si>
-  <si>
-    <t>모로칸만써요 다른거 저렴한거 써봐도 모로칸이최고</t>
-  </si>
-  <si>
-    <t>평소 쓰는 오일을 할인쿠폰 쓰고 잘 구매했어요.
-좋아요 컬리!</t>
-  </si>
-  <si>
-    <t>모로칸오일이 베스트인것 같아요 향기도 괜찮고 이것저것 써봤지만 이 제품이 제일 맘에 들어 할인하길래 구매했어요</t>
-  </si>
-  <si>
-    <t>저렴히 잘 샀어요!!</t>
-  </si>
-  <si>
-    <t>컬리 할인해서 구매했는데 너무 좋네요</t>
-  </si>
-  <si>
-    <t>쿠폰에 샘플까지 너무 잘 구매했어요.</t>
-  </si>
-  <si>
-    <t>매일 쓰는건데 잘 샀어요~</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="맑은 고딕"/>
-      <family val="3"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -133,21 +48,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -435,72 +409,472 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>리뷰 내용</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>헤어 오일하면 역시 모로칸오일!
+예전엔 늘 백화점에서 구매했는데, 인기 있는 제품이다 보니 재입고 일정 맞추기도 어렵고 기다림이 꽤 있었어요. 그런데 이번엔 컬리에서 샛별배송으로 바로 받아볼 수 있어서 정말 편하더라고요. 퇴근하고 주문했는데 다음 날 아침, 바로 현관 앞에 도착! 이래서 컬리를 못 끊는 이유죠.
+모로칸오일은 워낙 유명해서 설명이 필요 없을 정도예요. 향이 고급스럽고 머릿결을 찰랑거리게 해주는 오일로, 손상모나 건조모에는 특히 더 효과가 확실해요. 저처럼 자주 염색·드라이 하는 모발에 발라주면, 푸석함 없이 차분하게 정돈되면서 윤기가 살아나요.
+끈적임 없이 흡수도 빨라서 사계절 내내 부담 없이 사용 가능하고, 소량으로도 충분해서 오래 쓰게 돼요. 드라이 전/후로 나눠 바르면 더 효과적이에요. 백화점 정품 그대로, 빠르게 받을 수 있다는 점에서 컬리에서 재구매할 이유가 확실해졌어요. 앞으로도 쭉 컬리에서 구매할 예정입니다!</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>모로칸 오일은 너무나도 유명하죠?
+전 면세점 갈 일 있음 꼭 쟁이곤 하는데요
+면세점보다 혜택이 좋은 곳은?
+바로 컬리에요 🤗
+멤버스 혜택 또는 뷰티컬리데이에는 면세점보다 
+더 좋은 혜택으로 살 수 있어요 
+전 컬리에서 벌써 3번 이상 구매했는 걸요?
+똑 떨어지면 몇날 몇일 기다리지 않고 
+담날 새벽이면 오니까 
+내 머리결까지 컬리가 지켜줍니다
+✅ 제형
+노란빛 도는 점성있는 오일 제형
+✅ 향
+무난하니 호불호 없는 향
+(헤어제품으로 아르간 오일이 좋다고 해서 
+사서 써본 적이 있는데 저에겐 불호 였네요)
+✅  효과
+이게 제일 중요한데 젖은 머리에 발라두면
+마르고 나서도 머리가 엉킴없이 부드러워요
+머리에서 윤기도 나고요 ✨✨
+헤어오일 잘 못 쓰면 기름져서 떡지기도 하자나요😭
+모로칸 오일은 그런 것 없이 머리카락에 싹 스며들면서
+찰랑이는 머리결을 유지한다는 게 신통방통!!
+역시는 역시, 유명한 데는 다 이유가 있다!
+모로칸 오일이 다시 한번 증명하네요 🤗
+앞으론 쭉 모로칸 오일은 컬리에서만 
+사게될 것 같아요 🫶🏻</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>머리감고 물기만 수건으로 톡톡하고
+모로칸오일 젖은 머리카락에 발라주고
+드라이하고 또 모로칸오일 발라줬는데
+머리카락이 부들부들
+오늘 처음 썼는데 너무 좋아요~^^
+잦은 염색으로 머리카락이 푸석푸석하고 머리결도 안좋고, 머리가 끊어지고 그래서
+스트레스였는데 컬리에서 저렴하게 살 수 있어서 넘 좋아요
+꾸준하게 쓰면 머리결 좋아질 거 같아요~</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>쿠폰 할인받아서 구매했어요~ 아주 만족!</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>모발이 건조한 편이라 드라이 후에 꼭꼭 챙겨발라요</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>배송빠르게 샘플까지 받아서 잘 사용했어요!
+몇년째 사용중인데
+고가여도 그값을 하는 제품이고
+할인때구입하면 4만원대 구입가능해요!
+소비기한 매우 길어요~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>향은 무난하고, 젖은 모발에 바르니 부드러워지네요. 빗질도 쉽게 되고 좋아요 :)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>향도좋고
+머리에 윤기도 나고 좋아요
+항상 이것만써요</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>잘받았습니다 감사합니다 좋은 향</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>모발 관리 하려고 사봤어요.
+역시 모로칸오일은 좋아요.
+그러나 넘 많이 바르면 조금 많이 머리가 차분해져요</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>키워드</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>빈도수</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>오일</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>머리</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>컬리</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>모로</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>역시</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>구매</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>드라이</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>모발</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>머리카락</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>헤어</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>제품</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>바로</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>이유</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>효과</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>윤기</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>사용</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>면세점</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>혜택</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>발라</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>백화점</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>배송</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>염색</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>무난</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>오일이</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>할인</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>구입</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>예전</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>인기</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>일정</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>기다림</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>